--- a/Sheets/对话测试表2.xlsx
+++ b/Sheets/对话测试表2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1991F2-A94E-45A3-844D-192B01851426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EDE63B-164D-4530-AE4E-6CF4914452CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Sheets/对话测试表2.xlsx
+++ b/Sheets/对话测试表2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EDE63B-164D-4530-AE4E-6CF4914452CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEDF98E-8B42-404E-A45B-679EC0E33041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <author>zhuang zhong</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{297EFBD0-5C8A-4BF6-9145-ED6AC1A37F2C}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{297EFBD0-5C8A-4BF6-9145-ED6AC1A37F2C}">
       <text>
         <r>
           <rPr>
@@ -94,11 +94,14 @@
   <connection id="8" xr16:uid="{AB4B7BDA-C165-47EE-A7B8-BEB43BD3D5C3}" name="dialogueRule4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="9" xr16:uid="{CEC82CA6-58F4-443A-863C-7C1D5BC97C8C}" name="dialogueRule5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>发言者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +206,14 @@
   </si>
   <si>
     <t>你全身的毛都白了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +336,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -334,6 +345,25 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -353,7 +383,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="dialogues">
         <xsd:complexType>
@@ -367,6 +397,7 @@
                 <xsd:attribute name="jumpTo" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="function" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="params" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="varient" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -374,8 +405,8 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="8" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
+  <Map ID="9" Name="dialogues" RootElement="dialogues" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -515,38 +546,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:J12" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:J12" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:K12" tableType="xml" totalsRowShown="0" connectionId="9">
+  <autoFilter ref="A1:K12" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
+  <tableColumns count="11">
     <tableColumn id="4" xr3:uid="{5FEE14DA-3A69-4CEB-A079-C45A5BFE6686}" uniqueName="id" name="对话id">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@id" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{843A38CB-CE5B-4CC5-A6FD-13B60729B4E3}" uniqueName="speakerId" name="发言者id">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="12" xr3:uid="{7BDB0E5C-6EBD-4B78-982B-0F949D970799}" uniqueName="varient" name="差分" dataDxfId="3" dataCellStyle="Note">
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@varient" xmlDataType="string"/>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{C388B9B5-0613-49F0-9A1C-27EF43E742AB}" uniqueName="content" name="对话内容">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@content" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{52C3600D-FEA5-4BC9-A76F-3825DBE65247}" uniqueName="type" name="类型">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转对话id">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="2">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   " ")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(NOT(ISBLANK(G2)), VLOOKUP(G2,表7[[对话id]:[对话内容]],4,FALSE),   " ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{D9144C52-1783-4DCC-9206-A3111C5EDCF6}" uniqueName="function" name="函数" dataDxfId="1">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{A548F895-8691-4814-A093-76A1DFFFF162}" uniqueName="9" name="函数预览" dataDxfId="0">
       <calculatedColumnFormula>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{DEB61C5D-5628-4CD9-A27D-DC8AB9B5EAA6}" uniqueName="params" name="参数">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@params" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -827,28 +861,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.9140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="37.25" customWidth="1"/>
-    <col min="8" max="8" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.25" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -859,325 +893,367 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>奴才</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I2" s="3" t="str">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5" t="str">
+        <f>IF(NOT(ISBLANK(G2)), VLOOKUP(G2,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>奴才</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F3)), VLOOKUP(F3,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I3" s="3" t="str">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="str">
+        <f>IF(NOT(ISBLANK(G3)), VLOOKUP(G3,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>王爷</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F4)), VLOOKUP(F4,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I4" s="3" t="str">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="str">
+        <f>IF(NOT(ISBLANK(G4)), VLOOKUP(G4,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>奴才</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F5)), VLOOKUP(F5,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I5" s="3" t="str">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6" t="str">
+        <f>IF(NOT(ISBLANK(G5)), VLOOKUP(G5,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>王爷</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F6)), VLOOKUP(F6,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I6" s="3" t="str">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6" t="str">
+        <f>IF(NOT(ISBLANK(G6)), VLOOKUP(G6,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>奴才</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F7)), VLOOKUP(F7,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I7" s="3" t="str">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6" t="str">
+        <f>IF(NOT(ISBLANK(G7)), VLOOKUP(G7,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="1">
         <v>8</v>
       </c>
-      <c r="G8" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F8)), VLOOKUP(F8,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v>戳啦，极霸毛嘛</v>
-      </c>
-      <c r="I8" s="3" t="str">
+      <c r="H8" s="6">
+        <f>IF(NOT(ISBLANK(G8)), VLOOKUP(G8,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="1">
         <v>9</v>
       </c>
-      <c r="G9" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F9)), VLOOKUP(F9,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v>戳啦，白毛嘛</v>
-      </c>
-      <c r="I9" s="3" t="str">
+      <c r="H9" s="6">
+        <f>IF(NOT(ISBLANK(G9)), VLOOKUP(G9,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>王爷</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="G10" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F10)), VLOOKUP(F10,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v>结束</v>
-      </c>
-      <c r="H10">
+      <c r="H10" s="6">
+        <f>IF(NOT(ISBLANK(G10)), VLOOKUP(G10,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="J10" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v>Log</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>王爷</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F11)), VLOOKUP(F11,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v>结束</v>
-      </c>
-      <c r="H11">
+      <c r="H11" s="6">
+        <f>IF(NOT(ISBLANK(G11)), VLOOKUP(G11,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="J11" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v>Log</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]characters!$A:$B, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="1">
         <v>-1</v>
       </c>
-      <c r="G12" s="6" t="str">
-        <f>IF(NOT(ISBLANK(F12)), VLOOKUP(F12,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="1"/>
+      <c r="H12" s="6" t="str">
+        <f>IF(NOT(ISBLANK(G12)), VLOOKUP(G12,表7[[对话id]:[对话内容]],4,FALSE),   " ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="J12" s="3" t="str">
         <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]functions!$A:$B,2,FALSE), " ")</f>
         <v>End</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
